--- a/biology/Botanique/Euphorbiaceae/Euphorbiaceae.xlsx
+++ b/biology/Botanique/Euphorbiaceae/Euphorbiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Euphorbiaceae (Euphorbiacées) regroupe des plantes à fleurs dicotylédones de l'ordre des Malpighiales, cosmopolites sauf dans les régions arctique et antarctique.
 C'est la septième plus vaste famille de plantes à fleurs avec plus de 6 000 espèces réparties en 200 à 300 genres.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Euphorbia, nom classique d'une espèce de ce genre (passé au grec ευφορβος / euphorbos), dédié par le roi de Maurétanie, Juba II (50 - 23 av. J.-C.), à son médecin Euphorbus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Euphorbia, nom classique d'une espèce de ce genre (passé au grec ευφορβος / euphorbos), dédié par le roi de Maurétanie, Juba II (50 - 23 av. J.-C.), à son médecin Euphorbus.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lorsque Bernard de Jussieu créa cette famille en 1789[2], il regroupa beaucoup d’anciennes familles dont sont précisés les noms pour mémoire :
-Acalyphaceae (Acalypha), Androstachydaceae (Androstachys (es)), Bertyaceae (Bertya (en)), Bischofiaceae (Bischofia (en)), Columellaceae, Crotonaceae (Croton), Hippomanaceae (Hippomane), Hymenocardiaceae (Hymenocardia), Mercurialaceae (Mercurialis), Micrantheaceae (Micrantheum), Oldfieldiaceae (Oldfieldia), Peraceae (Pera (en)), Phyllanthaceae (Phyllanthus), Picrodendraceae (Picrodendron (en)), Putranjivaceae (Putranjiva (en)), Porantheraceae (Poranthera (en)), Pseudanthaceae (Pseudanthus (en)), Ricinaceae (Ricinus), Ricinocarpaceae (Ricinocarpos), Scepaceae (Scepeae), Stilaginaceae, Tithymalaceae, Tragiaceae (Tragia (en)), Treviaceae ou Trewiaceae, Uapacaceae (Uapaca)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lorsque Bernard de Jussieu créa cette famille en 1789, il regroupa beaucoup d’anciennes familles dont sont précisés les noms pour mémoire :
+Acalyphaceae (Acalypha), Androstachydaceae (Androstachys (es)), Bertyaceae (Bertya (en)), Bischofiaceae (Bischofia (en)), Columellaceae, Crotonaceae (Croton), Hippomanaceae (Hippomane), Hymenocardiaceae (Hymenocardia), Mercurialaceae (Mercurialis), Micrantheaceae (Micrantheum), Oldfieldiaceae (Oldfieldia), Peraceae (Pera (en)), Phyllanthaceae (Phyllanthus), Picrodendraceae (Picrodendron (en)), Putranjivaceae (Putranjiva (en)), Porantheraceae (Poranthera (en)), Pseudanthaceae (Pseudanthus (en)), Ricinaceae (Ricinus), Ricinocarpaceae (Ricinocarpos), Scepaceae (Scepeae), Stilaginaceae, Tithymalaceae, Tragiaceae (Tragia (en)), Treviaceae ou Trewiaceae, Uapacaceae (Uapaca).
 Les espèces des familles invalidées forment l'actuelle famille des Euphorbiaceae.
 Quatre familles ont été considérées comme des entités taxonomiques significatives : 
 Phyllanthaceae, Picrodendraceae, Putranjivaceae (séparées par la Classification APG III),
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (21 janvier 2018)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (21 janvier 2018) :
 Acalypha
 Acidocroton
 Acidoton
@@ -813,7 +831,7 @@
 Vaupesia
 Vernicia
 Wetria
-Selon NCBI  (23 mai 2010)[5] :
+Selon NCBI  (23 mai 2010) :
 sous-famille Acalyphoideae
 tribu Acalypheae
 Acalypha
@@ -1042,7 +1060,7 @@
 Euphorbiaceae incertae sedis
 Cladogelonium
 Vaupesia
-Selon DELTA Angio           (23 mai 2010)[6] :
+Selon DELTA Angio           (23 mai 2010) :
 Acalypha
 Acidocroton
 Acidoton
@@ -1385,7 +1403,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les euphorbiacées sont des arbres, des plantes arborescentes, des buissons, des lianes, ou des plantes herbacées des régions tempérées à tropicales.
 Les euphorbiacées possèdent généralement dans leurs tissus une substance laiteuse caractéristique de la famille.
